--- a/bases/UPDATE/SCN/PIB entidades federativas.xlsx
+++ b/bases/UPDATE/SCN/PIB entidades federativas.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rcant\Dropbox (CIEP)\TemplateCIEP\basesCIEP\INEGI\SCN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rcant\CIEP Dropbox\SimuladorCIEP\bases\UPDATE\SCN\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="5168"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15570" windowHeight="5978"/>
   </bookViews>
   <sheets>
     <sheet name="PIB entidades federativas" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="PIB_entidades_federativas" localSheetId="0">'PIB entidades federativas'!$A$1:$AG$30</definedName>
+    <definedName name="PIB_entidades_federativas" localSheetId="0">'PIB entidades federativas'!$A$1:$AG$31</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -23,7 +23,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" odcFile="C:\Users\rcant\Dropbox (CIEP)\TemplateCIEP\basesCIEP\INEGI\SCN\PIB entidades federativas.IQY" name="PIB entidades federativas" type="4" refreshedVersion="6" background="1" saveData="1">
+  <connection id="1" odcFile="C:\Users\rcant\CIEP Dropbox\SimuladorCIEP\bases\UPDATE\SCN\PIB entidades federativas.IQY" name="PIB entidades federativas" type="4" refreshedVersion="6" background="1" saveData="1">
     <webPr consecutive="1" xl2000="1" url="https://www.inegi.org.mx/sistemas/BIE/ConsultaExporta.aspx" post="aamin=2003&amp;aamax=9999&amp;cveser=,476964,476965,476966,476967,476968,476969,476970,476971,476972,476973,476974,476975,476976,476977,476978,476979,476980,476981,476982,476983,476984,476985,476986,476987,476988,476989,476990,476991,476992,476993,476994,476995,&amp;ordena=a&amp;ordenaPeriodo=ap&amp;orientacion=v&amp;frecuencia=Todo&amp;estadistico=False&amp;esquema=&amp;bdesplaza=False&amp;FileFormat=iqy" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
@@ -184,7 +184,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> A partir de 2020</t>
+      <t xml:space="preserve"> A partir de 2021</t>
     </r>
   </si>
   <si>
@@ -202,7 +202,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> A partir de 2019</t>
+      <t xml:space="preserve"> A partir de 2020</t>
     </r>
   </si>
   <si>
@@ -221,7 +221,7 @@
     </r>
   </si>
   <si>
-    <t>Fecha de consulta: 23/04/2022 10:31:26</t>
+    <t>Fecha de consulta: 03/01/2023 19:25:47</t>
   </si>
 </sst>
 </file>
@@ -1044,11 +1044,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG30"/>
+  <dimension ref="A1:AG31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AG1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1060,7 +1058,9 @@
     <col min="6" max="6" width="18.06640625" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="10.73046875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.73046875" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="11.73046875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19.46484375" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="10.73046875" bestFit="1" customWidth="1"/>
@@ -2869,100 +2869,100 @@
         <v>2019</v>
       </c>
       <c r="B20" s="1">
-        <v>305177.03700000001</v>
+        <v>305134.34600000002</v>
       </c>
       <c r="C20" s="1">
-        <v>806392.02099999995</v>
+        <v>806895.23100000003</v>
       </c>
       <c r="D20" s="1">
-        <v>217481.617</v>
+        <v>217480.302</v>
       </c>
       <c r="E20" s="1">
-        <v>624209.88600000006</v>
+        <v>624206.42000000004</v>
       </c>
       <c r="F20" s="1">
-        <v>849468.929</v>
+        <v>848957.06299999997</v>
       </c>
       <c r="G20" s="1">
-        <v>146794.55100000001</v>
+        <v>146794.59</v>
       </c>
       <c r="H20" s="1">
-        <v>333728.07900000003</v>
+        <v>333688.39799999999</v>
       </c>
       <c r="I20" s="1">
-        <v>797161.09100000001</v>
+        <v>796923.58600000001</v>
       </c>
       <c r="J20" s="1">
-        <v>3693218.1239999998</v>
+        <v>3693372.5950000002</v>
       </c>
       <c r="K20" s="1">
-        <v>275207.522</v>
+        <v>274867.18</v>
       </c>
       <c r="L20" s="1">
-        <v>968417.67099999997</v>
+        <v>967929.63</v>
       </c>
       <c r="M20" s="1">
-        <v>316178.31599999999</v>
+        <v>316151.36499999999</v>
       </c>
       <c r="N20" s="1">
-        <v>381429.44300000003</v>
+        <v>380780.03200000001</v>
       </c>
       <c r="O20" s="1">
-        <v>1646499</v>
+        <v>1646724.0360000001</v>
       </c>
       <c r="P20" s="1">
-        <v>2035854.2860000001</v>
+        <v>2036038.273</v>
       </c>
       <c r="Q20" s="1">
-        <v>571517.11800000002</v>
+        <v>571431.63699999999</v>
       </c>
       <c r="R20" s="1">
-        <v>255207.842</v>
+        <v>254810.304</v>
       </c>
       <c r="S20" s="1">
-        <v>163360.908</v>
+        <v>163435.514</v>
       </c>
       <c r="T20" s="1">
-        <v>1841071.737</v>
+        <v>1839422.297</v>
       </c>
       <c r="U20" s="1">
-        <v>349890.08600000001</v>
+        <v>349849.40100000001</v>
       </c>
       <c r="V20" s="1">
-        <v>762315.19700000004</v>
+        <v>761856.59100000001</v>
       </c>
       <c r="W20" s="1">
-        <v>533982.58400000003</v>
+        <v>533452.11600000004</v>
       </c>
       <c r="X20" s="1">
-        <v>375689.402</v>
+        <v>373507.35499999998</v>
       </c>
       <c r="Y20" s="1">
-        <v>520747.69</v>
+        <v>520595.89899999998</v>
       </c>
       <c r="Z20" s="1">
-        <v>515971.95699999999</v>
+        <v>515996.22200000001</v>
       </c>
       <c r="AA20" s="1">
-        <v>776826.61100000003</v>
+        <v>776373.853</v>
       </c>
       <c r="AB20" s="1">
-        <v>522236.65600000002</v>
+        <v>522225.44799999997</v>
       </c>
       <c r="AC20" s="1">
-        <v>710052.13500000001</v>
+        <v>709680.63399999996</v>
       </c>
       <c r="AD20" s="1">
-        <v>135597.48000000001</v>
+        <v>135474.465</v>
       </c>
       <c r="AE20" s="1">
-        <v>1038909.443</v>
+        <v>1039168.371</v>
       </c>
       <c r="AF20" s="1">
-        <v>347261.67800000001</v>
+        <v>347187.49400000001</v>
       </c>
       <c r="AG20" s="1">
-        <v>205737.96599999999</v>
+        <v>205622.26699999999</v>
       </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.45">
@@ -2970,177 +2970,241 @@
         <v>2020</v>
       </c>
       <c r="B21" s="1">
-        <v>303790.86200000002</v>
+        <v>306745.08500000002</v>
       </c>
       <c r="C21" s="1">
-        <v>801564.27</v>
+        <v>804612.15500000003</v>
       </c>
       <c r="D21" s="1">
-        <v>170562.709</v>
+        <v>171019.288</v>
       </c>
       <c r="E21" s="1">
-        <v>458928.00400000002</v>
+        <v>457688.65899999999</v>
       </c>
       <c r="F21" s="1">
-        <v>789862.85699999996</v>
+        <v>793706.63500000001</v>
       </c>
       <c r="G21" s="1">
-        <v>139654.342</v>
+        <v>139876.69899999999</v>
       </c>
       <c r="H21" s="1">
-        <v>336352.25099999999</v>
+        <v>340920.21100000001</v>
       </c>
       <c r="I21" s="1">
-        <v>786175.61199999996</v>
+        <v>788489.42</v>
       </c>
       <c r="J21" s="1">
-        <v>3464828.3459999999</v>
+        <v>3472435.0630000001</v>
       </c>
       <c r="K21" s="1">
-        <v>267864.28000000003</v>
+        <v>267589.06</v>
       </c>
       <c r="L21" s="1">
-        <v>949404.02300000004</v>
+        <v>948128.49399999995</v>
       </c>
       <c r="M21" s="1">
-        <v>302965.24300000002</v>
+        <v>305148.77</v>
       </c>
       <c r="N21" s="1">
-        <v>352895.45299999998</v>
+        <v>356338.57500000001</v>
       </c>
       <c r="O21" s="1">
-        <v>1591000.0390000001</v>
+        <v>1596000.6410000001</v>
       </c>
       <c r="P21" s="1">
-        <v>1993873.679</v>
+        <v>1994299.6710000001</v>
       </c>
       <c r="Q21" s="1">
-        <v>556933.973</v>
+        <v>560007.70600000001</v>
       </c>
       <c r="R21" s="1">
-        <v>235595.68299999999</v>
+        <v>236452.44399999999</v>
       </c>
       <c r="S21" s="1">
-        <v>147695.03400000001</v>
+        <v>148047.872</v>
       </c>
       <c r="T21" s="1">
-        <v>1744370.091</v>
+        <v>1765681.179</v>
       </c>
       <c r="U21" s="1">
-        <v>352162.86700000003</v>
+        <v>350955.33399999997</v>
       </c>
       <c r="V21" s="1">
-        <v>710094.52800000005</v>
+        <v>714238.93400000001</v>
       </c>
       <c r="W21" s="1">
-        <v>498140.92700000003</v>
+        <v>497305.74599999998</v>
       </c>
       <c r="X21" s="1">
-        <v>291750.23300000001</v>
+        <v>296754.78399999999</v>
       </c>
       <c r="Y21" s="1">
-        <v>509879.16200000001</v>
+        <v>513538.652</v>
       </c>
       <c r="Z21" s="1">
-        <v>505965.91399999999</v>
+        <v>505132.72600000002</v>
       </c>
       <c r="AA21" s="1">
-        <v>784272.90899999999</v>
+        <v>786624.06299999997</v>
       </c>
       <c r="AB21" s="1">
-        <v>505726.44400000002</v>
+        <v>506033.33799999999</v>
       </c>
       <c r="AC21" s="1">
-        <v>674740.81799999997</v>
+        <v>674669.07499999995</v>
       </c>
       <c r="AD21" s="1">
-        <v>123325.428</v>
+        <v>123648.095</v>
       </c>
       <c r="AE21" s="1">
-        <v>988914.78300000005</v>
+        <v>991609.95600000001</v>
       </c>
       <c r="AF21" s="1">
-        <v>332100.84700000001</v>
+        <v>331982.60399999999</v>
       </c>
       <c r="AG21" s="1">
-        <v>212637.39300000001</v>
+        <v>212883.61499999999</v>
       </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="4"/>
-      <c r="AB22" s="4"/>
-      <c r="AC22" s="4"/>
-      <c r="AD22" s="4"/>
-      <c r="AE22" s="4"/>
-      <c r="AF22" s="4"/>
-      <c r="AG22" s="4"/>
+      <c r="A22" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B22" s="1">
+        <v>318347.09499999997</v>
+      </c>
+      <c r="C22" s="1">
+        <v>923217.94299999997</v>
+      </c>
+      <c r="D22" s="1">
+        <v>212812.81299999999</v>
+      </c>
+      <c r="E22" s="1">
+        <v>483398.43300000002</v>
+      </c>
+      <c r="F22" s="1">
+        <v>901800.875</v>
+      </c>
+      <c r="G22" s="1">
+        <v>145780.62100000001</v>
+      </c>
+      <c r="H22" s="1">
+        <v>379227.25199999998</v>
+      </c>
+      <c r="I22" s="1">
+        <v>878624.61600000004</v>
+      </c>
+      <c r="J22" s="1">
+        <v>3701685.838</v>
+      </c>
+      <c r="K22" s="1">
+        <v>301206.66100000002</v>
+      </c>
+      <c r="L22" s="1">
+        <v>1029273.616</v>
+      </c>
+      <c r="M22" s="1">
+        <v>330936.98599999998</v>
+      </c>
+      <c r="N22" s="1">
+        <v>388747.74699999997</v>
+      </c>
+      <c r="O22" s="1">
+        <v>1759742.2620000001</v>
+      </c>
+      <c r="P22" s="1">
+        <v>2212972.298</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>596442.46900000004</v>
+      </c>
+      <c r="R22" s="1">
+        <v>258639.66899999999</v>
+      </c>
+      <c r="S22" s="1">
+        <v>173937.70499999999</v>
+      </c>
+      <c r="T22" s="1">
+        <v>2016768.4779999999</v>
+      </c>
+      <c r="U22" s="1">
+        <v>394292.364</v>
+      </c>
+      <c r="V22" s="1">
+        <v>759807.47</v>
+      </c>
+      <c r="W22" s="1">
+        <v>554927.54599999997</v>
+      </c>
+      <c r="X22" s="1">
+        <v>353445.37099999998</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>562563.77099999995</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>561552.97600000002</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>891434.34699999995</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>592959.29799999995</v>
+      </c>
+      <c r="AC22" s="1">
+        <v>717585.00899999996</v>
+      </c>
+      <c r="AD22" s="1">
+        <v>136256.70300000001</v>
+      </c>
+      <c r="AE22" s="1">
+        <v>1075630.3770000001</v>
+      </c>
+      <c r="AF22" s="1">
+        <v>376868.84499999997</v>
+      </c>
+      <c r="AG22" s="1">
+        <v>234552.13200000001</v>
+      </c>
     </row>
-    <row r="23" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
-      <c r="W23" s="2"/>
-      <c r="X23" s="2"/>
-      <c r="Y23" s="2"/>
-      <c r="Z23" s="2"/>
-      <c r="AA23" s="2"/>
-      <c r="AB23" s="2"/>
-      <c r="AC23" s="2"/>
-      <c r="AD23" s="2"/>
-      <c r="AE23" s="2"/>
-      <c r="AF23" s="2"/>
-      <c r="AG23" s="2"/>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="4"/>
+      <c r="AD23" s="4"/>
+      <c r="AE23" s="4"/>
+      <c r="AF23" s="4"/>
+      <c r="AG23" s="4"/>
     </row>
     <row r="24" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -3177,7 +3241,7 @@
     </row>
     <row r="25" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -3214,7 +3278,7 @@
     </row>
     <row r="26" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -3251,7 +3315,7 @@
     </row>
     <row r="27" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -3286,29 +3350,66 @@
       <c r="AF27" s="2"/>
       <c r="AG27" s="2"/>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A28" s="1"/>
+    <row r="28" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="2"/>
+      <c r="AD28" s="2"/>
+      <c r="AE28" s="2"/>
+      <c r="AF28" s="2"/>
+      <c r="AG28" s="2"/>
     </row>
-    <row r="29" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="4" t="s">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="30" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="4"/>
+      <c r="B30" s="4"/>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A30" s="1"/>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A31" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A26:AG26"/>
     <mergeCell ref="A27:AG27"/>
-    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A28:AG28"/>
+    <mergeCell ref="A30:B30"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:AG2"/>
-    <mergeCell ref="A22:AG22"/>
     <mergeCell ref="A23:AG23"/>
     <mergeCell ref="A24:AG24"/>
     <mergeCell ref="A25:AG25"/>
+    <mergeCell ref="A26:AG26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
